--- a/public/Excel Results/Provincial Administrator-1.xlsx
+++ b/public/Excel Results/Provincial Administrator-1.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Permanent" sheetId="1" r:id="rId4"/>
-    <sheet name="Casual" sheetId="2" r:id="rId5"/>
-    <sheet name="Outsider" sheetId="3" r:id="rId6"/>
+    <sheet name="Casual" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="a">'[1]LIST'!$B$1:$B$11</definedName>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>C O M P A R A T I V E    A S S E S S M E N T   F O R M</t>
   </si>
@@ -74,6 +72,9 @@
   </si>
   <si>
     <t>RA 1080/CSC</t>
+  </si>
+  <si>
+    <t>*Must be a citizen of the Philippines and a resident of Benguet Province</t>
   </si>
   <si>
     <t>NAME OF CANDIDATE/                                                        POSITION TITLE/SALARY GRADE</t>
@@ -121,31 +122,31 @@
 10</t>
   </si>
   <si>
-    <t>FRIDA D. HUELS</t>
-  </si>
-  <si>
-    <t>Quasi quaerat earum iure pariatur dolores.</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
+    <t>MALLORY H. BERNHARD</t>
+  </si>
+  <si>
+    <t>Eum eos omnis dolor qui voluptatem et et.</t>
+  </si>
+  <si>
+    <t>ewrer</t>
   </si>
   <si>
     <t>Position</t>
   </si>
   <si>
-    <t>Construction and Maintenance Capataz</t>
+    <t>Computer Programmer I</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Sagubo,Kapangan,Benguet</t>
+    <t>,,</t>
   </si>
   <si>
     <t>Age/Civil Status</t>
   </si>
   <si>
-    <t>42854121/Single</t>
+    <t>23/Single</t>
   </si>
   <si>
     <r>
@@ -320,30 +321,6 @@
   </si>
   <si>
     <t>PGO - Benguet provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
-  </si>
-  <si>
-    <t>*Must be a citizen of the Philippines and a resident of Benguet Province</t>
-  </si>
-  <si>
-    <t>MAKENZIE H. HILLS</t>
-  </si>
-  <si>
-    <t>,,</t>
-  </si>
-  <si>
-    <t>3321/Married</t>
-  </si>
-  <si>
-    <t>ANNE H. STREICH</t>
-  </si>
-  <si>
-    <t>Rerum minima quam qui a iste velit.</t>
-  </si>
-  <si>
-    <t>tyruty</t>
-  </si>
-  <si>
-    <t>79071/Single</t>
   </si>
 </sst>
 </file>
@@ -1466,12 +1443,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
       <selection activeCell="R12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1676,9 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="N8" s="30"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1730,7 +1709,7 @@
     </row>
     <row r="10" spans="1:21" customHeight="1" ht="13.5">
       <c r="A10" s="69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="95"/>
       <c r="C10" s="95"/>
@@ -1740,37 +1719,37 @@
       <c r="G10" s="95"/>
       <c r="H10" s="70"/>
       <c r="I10" s="67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U10" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:21" customHeight="1" ht="26.25">
@@ -1789,13 +1768,13 @@
       <c r="M11" s="71"/>
       <c r="N11" s="72"/>
       <c r="O11" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>
@@ -1808,7 +1787,7 @@
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -1816,10 +1795,10 @@
       <c r="G12" s="90"/>
       <c r="H12" s="91"/>
       <c r="I12" s="93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="43">
         <v>20</v>
@@ -1848,12 +1827,12 @@
         <f>B12</f>
       </c>
       <c r="C13" s="80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
       <c r="F13" s="80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="92"/>
@@ -1877,12 +1856,12 @@
         <f>B12</f>
       </c>
       <c r="C14" s="80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
       <c r="F14" s="80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="92"/>
@@ -1906,12 +1885,12 @@
         <f>B12</f>
       </c>
       <c r="C15" s="80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="92"/>
@@ -1979,7 +1958,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1997,14 +1976,14 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R18" s="13"/>
       <c r="U18" s="14"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -2107,7 +2086,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="5"/>
       <c r="O22" s="84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
@@ -2136,7 +2115,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
@@ -2146,13 +2125,13 @@
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
       <c r="I24" s="86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
       <c r="M24" s="86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N24" s="86"/>
       <c r="O24" s="19"/>
@@ -2164,7 +2143,7 @@
     </row>
     <row r="25" spans="1:21" customHeight="1" ht="16.5">
       <c r="A25" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
@@ -2174,13 +2153,13 @@
       <c r="G25" s="103"/>
       <c r="H25" s="103"/>
       <c r="I25" s="103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J25" s="103"/>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
       <c r="M25" s="103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N25" s="103"/>
       <c r="O25" s="20"/>
@@ -2193,7 +2172,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
@@ -2203,17 +2182,17 @@
       <c r="G26" s="103"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" s="103"/>
       <c r="K26" s="103"/>
       <c r="L26" s="103"/>
       <c r="M26" s="103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N26" s="103"/>
       <c r="O26" s="84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
@@ -2224,7 +2203,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="103"/>
       <c r="C27" s="103"/>
@@ -2234,13 +2213,13 @@
       <c r="G27" s="103"/>
       <c r="H27" s="103"/>
       <c r="I27" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J27" s="103"/>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
       <c r="M27" s="103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N27" s="103"/>
       <c r="O27" s="19"/>
@@ -2267,7 +2246,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P28" s="106"/>
       <c r="Q28" s="5"/>
@@ -2324,7 +2303,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
@@ -2334,17 +2313,17 @@
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
       <c r="I31" s="86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
       <c r="M31" s="86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N31" s="86"/>
       <c r="O31" s="86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
@@ -2355,7 +2334,7 @@
     </row>
     <row r="32" spans="1:21" customHeight="1" ht="18.75">
       <c r="A32" s="103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="103"/>
       <c r="C32" s="103"/>
@@ -2365,17 +2344,17 @@
       <c r="G32" s="103"/>
       <c r="H32" s="103"/>
       <c r="I32" s="103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J32" s="103"/>
       <c r="K32" s="103"/>
       <c r="L32" s="103"/>
       <c r="M32" s="103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" s="103"/>
       <c r="Q32" s="103"/>
@@ -2386,7 +2365,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="103"/>
       <c r="C33" s="103"/>
@@ -2396,13 +2375,13 @@
       <c r="G33" s="103"/>
       <c r="H33" s="103"/>
       <c r="I33" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="103"/>
       <c r="L33" s="103"/>
       <c r="M33" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="5"/>
@@ -2480,2245 +2459,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="O11:Q11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$U10="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31:S31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:U17 A10 I10:M10 R10:U10 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$U10="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S17">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:U39"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
-      <selection activeCell="R12" sqref="F12:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true" style="2"/>
-    <col min="2" max="2" width="1.7109375" customWidth="true" style="26"/>
-    <col min="3" max="3" width="8" customWidth="true" style="2"/>
-    <col min="4" max="4" width="3.42578125" customWidth="true" style="2"/>
-    <col min="5" max="5" width="3.42578125" customWidth="true" style="2"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true" style="2"/>
-    <col min="7" max="7" width="5.42578125" customWidth="true" style="2"/>
-    <col min="8" max="8" width="9" customWidth="true" style="2"/>
-    <col min="9" max="9" width="15.85546875" customWidth="true" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="2"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true" style="27"/>
-    <col min="12" max="12" width="17.5703125" customWidth="true" style="2"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true" style="28"/>
-    <col min="14" max="14" width="33.5703125" customWidth="true" style="2"/>
-    <col min="15" max="15" width="14.140625" customWidth="true" style="2"/>
-    <col min="16" max="16" width="11" customWidth="true" style="2"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true" style="2"/>
-    <col min="18" max="18" width="9.85546875" customWidth="true" style="2"/>
-    <col min="19" max="19" width="10" customWidth="true" style="14"/>
-    <col min="20" max="20" width="25.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="true" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="29">
-        <v>116040.0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="30">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" customHeight="1" ht="13.5">
-      <c r="A10" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" customHeight="1" ht="26.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
-    </row>
-    <row r="12" spans="1:21" s="48" customFormat="1">
-      <c r="A12" s="40">
-        <v>1</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="42">
-        <v>76</v>
-      </c>
-      <c r="K12" s="43">
-        <v>18</v>
-      </c>
-      <c r="L12" s="44">
-        <v>18</v>
-      </c>
-      <c r="M12" s="100">
-        <v>18</v>
-      </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45">
-        <f>SUM(K12:Q12)</f>
-        <v>54</v>
-      </c>
-      <c r="S12" s="60"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" s="48" customFormat="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="57"/>
-    </row>
-    <row r="14" spans="1:21" s="48" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="58"/>
-    </row>
-    <row r="15" spans="1:21" s="48" customFormat="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="58"/>
-    </row>
-    <row r="16" spans="1:21" s="48" customFormat="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="58"/>
-    </row>
-    <row r="17" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="31">
-        <f>B12</f>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="59"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="U18" s="14"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">standards of the position of </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">Provincial Administrator</t>
-          </r>
-          <r>
-            <t xml:space="preserve">.</t>
-          </r>
-        </is>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="U20" s="14"/>
-    </row>
-    <row r="21" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="U21" s="14"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="U22" s="14"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="8"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="86"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="U24" s="14"/>
-    </row>
-    <row r="25" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A25" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="14"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="103"/>
-      <c r="O26" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="103"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="8"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="14"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="8"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="8"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="14"/>
-    </row>
-    <row r="32" spans="1:21" customHeight="1" ht="18.75">
-      <c r="A32" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="14"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="103"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="14"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="14"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="8"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="8"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="A10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:Q10"/>
-  </mergeCells>
-  <conditionalFormatting sqref="O11:Q11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$U10="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31:S31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:U17 A10 I10:M10 R10:U10 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$U10="ABSENT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S17">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:U39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R12" sqref="F12:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true" style="2"/>
-    <col min="2" max="2" width="1.7109375" customWidth="true" style="26"/>
-    <col min="3" max="3" width="8" customWidth="true" style="2"/>
-    <col min="4" max="4" width="3.42578125" customWidth="true" style="2"/>
-    <col min="5" max="5" width="3.42578125" customWidth="true" style="2"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true" style="2"/>
-    <col min="7" max="7" width="5.42578125" customWidth="true" style="2"/>
-    <col min="8" max="8" width="9" customWidth="true" style="2"/>
-    <col min="9" max="9" width="15.85546875" customWidth="true" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="2"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true" style="27"/>
-    <col min="12" max="12" width="17.5703125" customWidth="true" style="2"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true" style="28"/>
-    <col min="14" max="14" width="33.5703125" customWidth="true" style="2"/>
-    <col min="15" max="15" width="14.140625" customWidth="true" style="2"/>
-    <col min="16" max="16" width="11" customWidth="true" style="2"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true" style="2"/>
-    <col min="18" max="18" width="9.85546875" customWidth="true" style="2"/>
-    <col min="19" max="19" width="10" customWidth="true" style="14"/>
-    <col min="20" max="20" width="25.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="true" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="29">
-        <v>116040.0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="30">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" customHeight="1" ht="13.5">
-      <c r="A10" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" customHeight="1" ht="26.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
-    </row>
-    <row r="12" spans="1:21" s="48" customFormat="1">
-      <c r="A12" s="40">
-        <v>1</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="43">
-        <v>20</v>
-      </c>
-      <c r="L12" s="44">
-        <v>20</v>
-      </c>
-      <c r="M12" s="100">
-        <v>25</v>
-      </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45">
-        <f>SUM(K12:Q12)</f>
-        <v>65</v>
-      </c>
-      <c r="S12" s="60"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" s="48" customFormat="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="57"/>
-    </row>
-    <row r="14" spans="1:21" s="48" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="58"/>
-    </row>
-    <row r="15" spans="1:21" s="48" customFormat="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50">
-        <f>B12</f>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="58"/>
-    </row>
-    <row r="16" spans="1:21" s="48" customFormat="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="58"/>
-    </row>
-    <row r="17" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="31">
-        <f>B12</f>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="59"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="U18" s="14"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">standards of the position of </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">Provincial Administrator</t>
-          </r>
-          <r>
-            <t xml:space="preserve">.</t>
-          </r>
-        </is>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="U20" s="14"/>
-    </row>
-    <row r="21" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="U21" s="14"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="U22" s="14"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="8"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="86"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="U24" s="14"/>
-    </row>
-    <row r="25" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A25" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="14"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="103"/>
-      <c r="O26" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="103"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="8"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="14"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="8"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="8"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="14"/>
-    </row>
-    <row r="32" spans="1:21" customHeight="1" ht="18.75">
-      <c r="A32" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="14"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="103"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="14"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="14"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="8"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="8"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="24" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel Results/Provincial Administrator-1.xlsx
+++ b/public/Excel Results/Provincial Administrator-1.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Casual" sheetId="1" r:id="rId4"/>
+    <sheet name="Permanent" sheetId="1" r:id="rId4"/>
+    <sheet name="Casual" sheetId="2" r:id="rId5"/>
+    <sheet name="Outsider" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="a">'[1]LIST'!$B$1:$B$11</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>C O M P A R A T I V E    A S S E S S M E N T   F O R M</t>
   </si>
@@ -72,9 +74,6 @@
   </si>
   <si>
     <t>RA 1080/CSC</t>
-  </si>
-  <si>
-    <t>*Must be a citizen of the Philippines and a resident of Benguet Province</t>
   </si>
   <si>
     <t>NAME OF CANDIDATE/                                                        POSITION TITLE/SALARY GRADE</t>
@@ -122,31 +121,31 @@
 10</t>
   </si>
   <si>
-    <t>MALLORY H. BERNHARD</t>
-  </si>
-  <si>
-    <t>Eum eos omnis dolor qui voluptatem et et.</t>
-  </si>
-  <si>
-    <t>ewrer</t>
+    <t>FRIDA D. HUELS</t>
+  </si>
+  <si>
+    <t>Quasi quaerat earum iure pariatur dolores.</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
   </si>
   <si>
     <t>Position</t>
   </si>
   <si>
-    <t>Computer Programmer I</t>
+    <t>Construction and Maintenance Capataz</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>,,</t>
+    <t>Sagubo,Kapangan,Benguet</t>
   </si>
   <si>
     <t>Age/Civil Status</t>
   </si>
   <si>
-    <t>23/Single</t>
+    <t>42854121/Single</t>
   </si>
   <si>
     <r>
@@ -321,6 +320,30 @@
   </si>
   <si>
     <t>PGO - Benguet provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
+  </si>
+  <si>
+    <t>*Must be a citizen of the Philippines and a resident of Benguet Province</t>
+  </si>
+  <si>
+    <t>MAKENZIE H. HILLS</t>
+  </si>
+  <si>
+    <t>,,</t>
+  </si>
+  <si>
+    <t>3321/Married</t>
+  </si>
+  <si>
+    <t>ANNE H. STREICH</t>
+  </si>
+  <si>
+    <t>Rerum minima quam qui a iste velit.</t>
+  </si>
+  <si>
+    <t>tyruty</t>
+  </si>
+  <si>
+    <t>79071/Single</t>
   </si>
 </sst>
 </file>
@@ -1443,12 +1466,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="R12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
@@ -1676,9 +1699,7 @@
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="30"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1709,7 +1730,7 @@
     </row>
     <row r="10" spans="1:21" customHeight="1" ht="13.5">
       <c r="A10" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="95"/>
       <c r="C10" s="95"/>
@@ -1719,37 +1740,37 @@
       <c r="G10" s="95"/>
       <c r="H10" s="70"/>
       <c r="I10" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="K10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="L10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="M10" s="69" t="s">
         <v>20</v>
-      </c>
-      <c r="M10" s="69" t="s">
-        <v>21</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="67" t="s">
+      <c r="T10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="63" t="s">
+      <c r="U10" s="65" t="s">
         <v>25</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:21" customHeight="1" ht="26.25">
@@ -1768,13 +1789,13 @@
       <c r="M11" s="71"/>
       <c r="N11" s="72"/>
       <c r="O11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>
@@ -1787,7 +1808,7 @@
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -1795,10 +1816,10 @@
       <c r="G12" s="90"/>
       <c r="H12" s="91"/>
       <c r="I12" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>31</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>32</v>
       </c>
       <c r="K12" s="43">
         <v>20</v>
@@ -1827,12 +1848,12 @@
         <f>B12</f>
       </c>
       <c r="C13" s="80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
       <c r="F13" s="80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="92"/>
@@ -1856,12 +1877,12 @@
         <f>B12</f>
       </c>
       <c r="C14" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
       <c r="F14" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="92"/>
@@ -1885,12 +1906,12 @@
         <f>B12</f>
       </c>
       <c r="C15" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="92"/>
@@ -1958,7 +1979,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1976,14 +1997,14 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R18" s="13"/>
       <c r="U18" s="14"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -2086,7 +2107,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="5"/>
       <c r="O22" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
@@ -2115,7 +2136,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
@@ -2125,13 +2146,13 @@
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
       <c r="I24" s="86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="86"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
       <c r="M24" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="86"/>
       <c r="O24" s="19"/>
@@ -2143,7 +2164,7 @@
     </row>
     <row r="25" spans="1:21" customHeight="1" ht="16.5">
       <c r="A25" s="103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
@@ -2153,13 +2174,13 @@
       <c r="G25" s="103"/>
       <c r="H25" s="103"/>
       <c r="I25" s="103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="103"/>
       <c r="K25" s="103"/>
       <c r="L25" s="103"/>
       <c r="M25" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N25" s="103"/>
       <c r="O25" s="20"/>
@@ -2172,7 +2193,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
@@ -2182,17 +2203,17 @@
       <c r="G26" s="103"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="103"/>
       <c r="K26" s="103"/>
       <c r="L26" s="103"/>
       <c r="M26" s="103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N26" s="103"/>
       <c r="O26" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
@@ -2203,7 +2224,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="103"/>
       <c r="C27" s="103"/>
@@ -2213,13 +2234,13 @@
       <c r="G27" s="103"/>
       <c r="H27" s="103"/>
       <c r="I27" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="103"/>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
       <c r="M27" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N27" s="103"/>
       <c r="O27" s="19"/>
@@ -2246,7 +2267,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P28" s="106"/>
       <c r="Q28" s="5"/>
@@ -2303,7 +2324,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
@@ -2313,17 +2334,17 @@
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
       <c r="I31" s="86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
       <c r="M31" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N31" s="86"/>
       <c r="O31" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
@@ -2334,7 +2355,7 @@
     </row>
     <row r="32" spans="1:21" customHeight="1" ht="18.75">
       <c r="A32" s="103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="103"/>
       <c r="C32" s="103"/>
@@ -2344,17 +2365,17 @@
       <c r="G32" s="103"/>
       <c r="H32" s="103"/>
       <c r="I32" s="103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" s="103"/>
       <c r="K32" s="103"/>
       <c r="L32" s="103"/>
       <c r="M32" s="103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P32" s="103"/>
       <c r="Q32" s="103"/>
@@ -2365,7 +2386,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="103"/>
       <c r="C33" s="103"/>
@@ -2375,13 +2396,13 @@
       <c r="G33" s="103"/>
       <c r="H33" s="103"/>
       <c r="I33" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="103"/>
       <c r="L33" s="103"/>
       <c r="M33" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="5"/>
@@ -2459,7 +2480,2245 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O11:Q11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$U10="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:S31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:U17 A10 I10:M10 R10:U10 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$U10="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S17">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
+      <selection activeCell="R12" sqref="F12:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="true" style="2"/>
+    <col min="2" max="2" width="1.7109375" customWidth="true" style="26"/>
+    <col min="3" max="3" width="8" customWidth="true" style="2"/>
+    <col min="4" max="4" width="3.42578125" customWidth="true" style="2"/>
+    <col min="5" max="5" width="3.42578125" customWidth="true" style="2"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true" style="2"/>
+    <col min="7" max="7" width="5.42578125" customWidth="true" style="2"/>
+    <col min="8" max="8" width="9" customWidth="true" style="2"/>
+    <col min="9" max="9" width="15.85546875" customWidth="true" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="true" style="2"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true" style="27"/>
+    <col min="12" max="12" width="17.5703125" customWidth="true" style="2"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true" style="28"/>
+    <col min="14" max="14" width="33.5703125" customWidth="true" style="2"/>
+    <col min="15" max="15" width="14.140625" customWidth="true" style="2"/>
+    <col min="16" max="16" width="11" customWidth="true" style="2"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true" style="2"/>
+    <col min="18" max="18" width="9.85546875" customWidth="true" style="2"/>
+    <col min="19" max="19" width="10" customWidth="true" style="14"/>
+    <col min="20" max="20" width="25.5703125" customWidth="true" style="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="29">
+        <v>116040.0</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="30">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10" t="s">
         <v>65</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" customHeight="1" ht="13.5">
+      <c r="A10" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" customHeight="1" ht="26.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="66"/>
+    </row>
+    <row r="12" spans="1:21" s="48" customFormat="1">
+      <c r="A12" s="40">
+        <v>1</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="42">
+        <v>76</v>
+      </c>
+      <c r="K12" s="43">
+        <v>18</v>
+      </c>
+      <c r="L12" s="44">
+        <v>18</v>
+      </c>
+      <c r="M12" s="100">
+        <v>18</v>
+      </c>
+      <c r="N12" s="101"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45">
+        <f>SUM(K12:Q12)</f>
+        <v>54</v>
+      </c>
+      <c r="S12" s="60"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+    </row>
+    <row r="13" spans="1:21" s="48" customFormat="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="57"/>
+    </row>
+    <row r="14" spans="1:21" s="48" customFormat="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="58"/>
+    </row>
+    <row r="15" spans="1:21" s="48" customFormat="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="58"/>
+    </row>
+    <row r="16" spans="1:21" s="48" customFormat="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="58"/>
+    </row>
+    <row r="17" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A17" s="37"/>
+      <c r="B17" s="31">
+        <f>B12</f>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="59"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">standards of the position of </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Provincial Administrator</t>
+          </r>
+          <r>
+            <t xml:space="preserve">.</t>
+          </r>
+        </is>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="8"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A25" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="103"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="103"/>
+      <c r="O26" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="103"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="8"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="8"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="8"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" customHeight="1" ht="18.75">
+      <c r="A32" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="A10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:Q10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O11:Q11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$U10="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:S31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:U17 A10 I10:M10 R10:U10 I12:M12 A12:C17 J13:M15 F15:F17 I16:M17 A18:R18 T18:U18 A19:U24 A25:H25 M25:U25 A26:U30 A32:N38 O32:U255 B39:N39 A40:N255">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$U10="ABSENT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S17">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R12" sqref="F12:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="true" style="2"/>
+    <col min="2" max="2" width="1.7109375" customWidth="true" style="26"/>
+    <col min="3" max="3" width="8" customWidth="true" style="2"/>
+    <col min="4" max="4" width="3.42578125" customWidth="true" style="2"/>
+    <col min="5" max="5" width="3.42578125" customWidth="true" style="2"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true" style="2"/>
+    <col min="7" max="7" width="5.42578125" customWidth="true" style="2"/>
+    <col min="8" max="8" width="9" customWidth="true" style="2"/>
+    <col min="9" max="9" width="15.85546875" customWidth="true" style="2"/>
+    <col min="10" max="10" width="10.5703125" customWidth="true" style="2"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true" style="27"/>
+    <col min="12" max="12" width="17.5703125" customWidth="true" style="2"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true" style="28"/>
+    <col min="14" max="14" width="33.5703125" customWidth="true" style="2"/>
+    <col min="15" max="15" width="14.140625" customWidth="true" style="2"/>
+    <col min="16" max="16" width="11" customWidth="true" style="2"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true" style="2"/>
+    <col min="18" max="18" width="9.85546875" customWidth="true" style="2"/>
+    <col min="19" max="19" width="10" customWidth="true" style="14"/>
+    <col min="20" max="20" width="25.5703125" customWidth="true" style="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="29">
+        <v>116040.0</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="30">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" customHeight="1" ht="13.5">
+      <c r="A10" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" customHeight="1" ht="26.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="66"/>
+    </row>
+    <row r="12" spans="1:21" s="48" customFormat="1">
+      <c r="A12" s="40">
+        <v>1</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="43">
+        <v>20</v>
+      </c>
+      <c r="L12" s="44">
+        <v>20</v>
+      </c>
+      <c r="M12" s="100">
+        <v>25</v>
+      </c>
+      <c r="N12" s="101"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45">
+        <f>SUM(K12:Q12)</f>
+        <v>65</v>
+      </c>
+      <c r="S12" s="60"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+    </row>
+    <row r="13" spans="1:21" s="48" customFormat="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="57"/>
+    </row>
+    <row r="14" spans="1:21" s="48" customFormat="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="58"/>
+    </row>
+    <row r="15" spans="1:21" s="48" customFormat="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50">
+        <f>B12</f>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="58"/>
+    </row>
+    <row r="16" spans="1:21" s="48" customFormat="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="58"/>
+    </row>
+    <row r="17" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A17" s="37"/>
+      <c r="B17" s="31">
+        <f>B12</f>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="59"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">standards of the position of </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Provincial Administrator</t>
+          </r>
+          <r>
+            <t xml:space="preserve">.</t>
+          </r>
+        </is>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="8"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" customHeight="1" ht="16.5">
+      <c r="A25" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="103"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="103"/>
+      <c r="O26" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="103"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="8"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="8"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="8"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" customHeight="1" ht="18.75">
+      <c r="A32" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
